--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Selplg-Sell.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Selplg-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.11076499886071</v>
+        <v>3.137719</v>
       </c>
       <c r="H2">
-        <v>3.11076499886071</v>
+        <v>9.413157</v>
       </c>
       <c r="I2">
-        <v>0.02007253213244485</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="J2">
-        <v>0.02007253213244485</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.197013153439431</v>
+        <v>0.2056386666666667</v>
       </c>
       <c r="N2">
-        <v>0.197013153439431</v>
+        <v>0.616916</v>
       </c>
       <c r="O2">
-        <v>0.06471992747133357</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="P2">
-        <v>0.06471992747133357</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="Q2">
-        <v>0.6128616220345564</v>
+        <v>0.6452363515346667</v>
       </c>
       <c r="R2">
-        <v>0.6128616220345564</v>
+        <v>5.807127163812</v>
       </c>
       <c r="S2">
-        <v>0.001299092823777843</v>
+        <v>8.407817028296694E-05</v>
       </c>
       <c r="T2">
-        <v>0.001299092823777843</v>
+        <v>8.407817028296693E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,57 +596,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.11076499886071</v>
+        <v>3.137719</v>
       </c>
       <c r="H3">
-        <v>3.11076499886071</v>
+        <v>9.413157</v>
       </c>
       <c r="I3">
-        <v>0.02007253213244485</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="J3">
-        <v>0.02007253213244485</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.84707482899371</v>
+        <v>2.974950666666667</v>
       </c>
       <c r="N3">
-        <v>2.84707482899371</v>
+        <v>8.924852</v>
       </c>
       <c r="O3">
-        <v>0.9352800725286664</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="P3">
-        <v>0.9352800725286664</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="Q3">
-        <v>8.856580727170973</v>
+        <v>9.334559230862666</v>
       </c>
       <c r="R3">
-        <v>8.856580727170973</v>
+        <v>84.011033077764</v>
       </c>
       <c r="S3">
-        <v>0.01877343930866701</v>
+        <v>0.001216349107830366</v>
       </c>
       <c r="T3">
-        <v>0.01877343930866701</v>
+        <v>0.001216349107830366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.0334356939895</v>
+        <v>3.137719</v>
       </c>
       <c r="H4">
-        <v>2.0334356939895</v>
+        <v>9.413157</v>
       </c>
       <c r="I4">
-        <v>0.01312095363095995</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="J4">
-        <v>0.01312095363095995</v>
+        <v>0.02008359063640063</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.197013153439431</v>
+        <v>45.939923</v>
       </c>
       <c r="N4">
-        <v>0.197013153439431</v>
+        <v>137.819769</v>
       </c>
       <c r="O4">
-        <v>0.06471992747133357</v>
+        <v>0.935249263856416</v>
       </c>
       <c r="P4">
-        <v>0.06471992747133357</v>
+        <v>0.935249263856416</v>
       </c>
       <c r="Q4">
-        <v>0.4006135783891692</v>
+        <v>144.146569255637</v>
       </c>
       <c r="R4">
-        <v>0.4006135783891692</v>
+        <v>1297.319123300733</v>
       </c>
       <c r="S4">
-        <v>0.0008491871673504584</v>
+        <v>0.0187831633582873</v>
       </c>
       <c r="T4">
-        <v>0.0008491871673504584</v>
+        <v>0.0187831633582873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.0334356939895</v>
+        <v>2.516030666666667</v>
       </c>
       <c r="H5">
-        <v>2.0334356939895</v>
+        <v>7.548092</v>
       </c>
       <c r="I5">
-        <v>0.01312095363095995</v>
+        <v>0.01610435158086607</v>
       </c>
       <c r="J5">
-        <v>0.01312095363095995</v>
+        <v>0.01610435158086607</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.84707482899371</v>
+        <v>0.2056386666666667</v>
       </c>
       <c r="N5">
-        <v>2.84707482899371</v>
+        <v>0.616916</v>
       </c>
       <c r="O5">
-        <v>0.9352800725286664</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="P5">
-        <v>0.9352800725286664</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="Q5">
-        <v>5.789343580734861</v>
+        <v>0.5173931915857778</v>
       </c>
       <c r="R5">
-        <v>5.789343580734861</v>
+        <v>4.656538724272</v>
       </c>
       <c r="S5">
-        <v>0.01227176646360949</v>
+        <v>6.741943903490618E-05</v>
       </c>
       <c r="T5">
-        <v>0.01227176646360949</v>
+        <v>6.741943903490618E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>72.3476707953522</v>
+        <v>2.516030666666667</v>
       </c>
       <c r="H6">
-        <v>72.3476707953522</v>
+        <v>7.548092</v>
       </c>
       <c r="I6">
-        <v>0.4668308108388467</v>
+        <v>0.01610435158086607</v>
       </c>
       <c r="J6">
-        <v>0.4668308108388467</v>
+        <v>0.01610435158086607</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.197013153439431</v>
+        <v>2.974950666666667</v>
       </c>
       <c r="N6">
-        <v>0.197013153439431</v>
+        <v>8.924852</v>
       </c>
       <c r="O6">
-        <v>0.06471992747133357</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="P6">
-        <v>0.06471992747133357</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="Q6">
-        <v>14.25344276739016</v>
+        <v>7.485067109153777</v>
       </c>
       <c r="R6">
-        <v>14.25344276739016</v>
+        <v>67.36560398238399</v>
       </c>
       <c r="S6">
-        <v>0.030213256218874</v>
+        <v>0.0009753491809412634</v>
       </c>
       <c r="T6">
-        <v>0.030213256218874</v>
+        <v>0.0009753491809412634</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>72.3476707953522</v>
+        <v>2.516030666666667</v>
       </c>
       <c r="H7">
-        <v>72.3476707953522</v>
+        <v>7.548092</v>
       </c>
       <c r="I7">
-        <v>0.4668308108388467</v>
+        <v>0.01610435158086607</v>
       </c>
       <c r="J7">
-        <v>0.4668308108388467</v>
+        <v>0.01610435158086607</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.84707482899371</v>
+        <v>45.939923</v>
       </c>
       <c r="N7">
-        <v>2.84707482899371</v>
+        <v>137.819769</v>
       </c>
       <c r="O7">
-        <v>0.9352800725286664</v>
+        <v>0.935249263856416</v>
       </c>
       <c r="P7">
-        <v>0.9352800725286664</v>
+        <v>0.935249263856416</v>
       </c>
       <c r="Q7">
-        <v>205.9792324577706</v>
+        <v>115.5862550923053</v>
       </c>
       <c r="R7">
-        <v>205.9792324577706</v>
+        <v>1040.276295830748</v>
       </c>
       <c r="S7">
-        <v>0.4366175546199727</v>
+        <v>0.0150615829608899</v>
       </c>
       <c r="T7">
-        <v>0.4366175546199727</v>
+        <v>0.0150615829608899</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.7795915287751</v>
+        <v>72.66191099999999</v>
       </c>
       <c r="H8">
-        <v>76.7795915287751</v>
+        <v>217.985733</v>
       </c>
       <c r="I8">
-        <v>0.4954282366690397</v>
+        <v>0.4650869231382975</v>
       </c>
       <c r="J8">
-        <v>0.4954282366690397</v>
+        <v>0.4650869231382975</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.197013153439431</v>
+        <v>0.2056386666666667</v>
       </c>
       <c r="N8">
-        <v>0.197013153439431</v>
+        <v>0.616916</v>
       </c>
       <c r="O8">
-        <v>0.06471992747133357</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="P8">
-        <v>0.06471992747133357</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="Q8">
-        <v>15.12658944687541</v>
+        <v>14.942098495492</v>
       </c>
       <c r="R8">
-        <v>15.12658944687541</v>
+        <v>134.478886459428</v>
       </c>
       <c r="S8">
-        <v>0.03206407954447093</v>
+        <v>0.00194704513888713</v>
       </c>
       <c r="T8">
-        <v>0.03206407954447093</v>
+        <v>0.00194704513888713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.7795915287751</v>
+        <v>72.66191099999999</v>
       </c>
       <c r="H9">
-        <v>76.7795915287751</v>
+        <v>217.985733</v>
       </c>
       <c r="I9">
-        <v>0.4954282366690397</v>
+        <v>0.4650869231382975</v>
       </c>
       <c r="J9">
-        <v>0.4954282366690397</v>
+        <v>0.4650869231382975</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.84707482899371</v>
+        <v>2.974950666666667</v>
       </c>
       <c r="N9">
-        <v>2.84707482899371</v>
+        <v>8.924852</v>
       </c>
       <c r="O9">
-        <v>0.9352800725286664</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="P9">
-        <v>0.9352800725286664</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="Q9">
-        <v>218.5972424219943</v>
+        <v>216.165600570724</v>
       </c>
       <c r="R9">
-        <v>218.5972424219943</v>
+        <v>1945.490405136516</v>
       </c>
       <c r="S9">
-        <v>0.4633641571245688</v>
+        <v>0.02816767550507213</v>
       </c>
       <c r="T9">
-        <v>0.4633641571245688</v>
+        <v>0.02816767550507213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.704749168655471</v>
+        <v>72.66191099999999</v>
       </c>
       <c r="H10">
-        <v>0.704749168655471</v>
+        <v>217.985733</v>
       </c>
       <c r="I10">
-        <v>0.004547466728708733</v>
+        <v>0.4650869231382975</v>
       </c>
       <c r="J10">
-        <v>0.004547466728708733</v>
+        <v>0.4650869231382975</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.197013153439431</v>
+        <v>45.939923</v>
       </c>
       <c r="N10">
-        <v>0.197013153439431</v>
+        <v>137.819769</v>
       </c>
       <c r="O10">
-        <v>0.06471992747133357</v>
+        <v>0.935249263856416</v>
       </c>
       <c r="P10">
-        <v>0.06471992747133357</v>
+        <v>0.935249263856416</v>
       </c>
       <c r="Q10">
-        <v>0.1388448561006317</v>
+        <v>3338.082596372853</v>
       </c>
       <c r="R10">
-        <v>0.1388448561006317</v>
+        <v>30042.74336735568</v>
       </c>
       <c r="S10">
-        <v>0.0002943117168603317</v>
+        <v>0.4349722024943383</v>
       </c>
       <c r="T10">
-        <v>0.0002943117168603317</v>
+        <v>0.4349722024943383</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>76.94530466666667</v>
+      </c>
+      <c r="H11">
+        <v>230.835914</v>
+      </c>
+      <c r="I11">
+        <v>0.4925036309237572</v>
+      </c>
+      <c r="J11">
+        <v>0.4925036309237571</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2056386666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.616916</v>
+      </c>
+      <c r="O11">
+        <v>0.004186411275012692</v>
+      </c>
+      <c r="P11">
+        <v>0.004186411275012692</v>
+      </c>
+      <c r="Q11">
+        <v>15.82292985791378</v>
+      </c>
+      <c r="R11">
+        <v>142.406368721224</v>
+      </c>
+      <c r="S11">
+        <v>0.002061822753483907</v>
+      </c>
+      <c r="T11">
+        <v>0.002061822753483906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.704749168655471</v>
-      </c>
-      <c r="H11">
-        <v>0.704749168655471</v>
-      </c>
-      <c r="I11">
-        <v>0.004547466728708733</v>
-      </c>
-      <c r="J11">
-        <v>0.004547466728708733</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.84707482899371</v>
-      </c>
-      <c r="N11">
-        <v>2.84707482899371</v>
-      </c>
-      <c r="O11">
-        <v>0.9352800725286664</v>
-      </c>
-      <c r="P11">
-        <v>0.9352800725286664</v>
-      </c>
-      <c r="Q11">
-        <v>2.006473618833234</v>
-      </c>
-      <c r="R11">
-        <v>2.006473618833234</v>
-      </c>
-      <c r="S11">
-        <v>0.004253155011848401</v>
-      </c>
-      <c r="T11">
-        <v>0.004253155011848401</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>76.94530466666667</v>
+      </c>
+      <c r="H12">
+        <v>230.835914</v>
+      </c>
+      <c r="I12">
+        <v>0.4925036309237572</v>
+      </c>
+      <c r="J12">
+        <v>0.4925036309237571</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.974950666666667</v>
+      </c>
+      <c r="N12">
+        <v>8.924852</v>
+      </c>
+      <c r="O12">
+        <v>0.06056432486857137</v>
+      </c>
+      <c r="P12">
+        <v>0.06056432486857137</v>
+      </c>
+      <c r="Q12">
+        <v>228.9084854149698</v>
+      </c>
+      <c r="R12">
+        <v>2060.176368734728</v>
+      </c>
+      <c r="S12">
+        <v>0.0298281499022174</v>
+      </c>
+      <c r="T12">
+        <v>0.0298281499022174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>76.94530466666667</v>
+      </c>
+      <c r="H13">
+        <v>230.835914</v>
+      </c>
+      <c r="I13">
+        <v>0.4925036309237572</v>
+      </c>
+      <c r="J13">
+        <v>0.4925036309237571</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>45.939923</v>
+      </c>
+      <c r="N13">
+        <v>137.819769</v>
+      </c>
+      <c r="O13">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="P13">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="Q13">
+        <v>3534.861371598208</v>
+      </c>
+      <c r="R13">
+        <v>31813.75234438387</v>
+      </c>
+      <c r="S13">
+        <v>0.4606136582680559</v>
+      </c>
+      <c r="T13">
+        <v>0.4606136582680558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.972004</v>
+      </c>
+      <c r="H14">
+        <v>2.916012</v>
+      </c>
+      <c r="I14">
+        <v>0.006221503720678607</v>
+      </c>
+      <c r="J14">
+        <v>0.006221503720678606</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2056386666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.616916</v>
+      </c>
+      <c r="O14">
+        <v>0.004186411275012692</v>
+      </c>
+      <c r="P14">
+        <v>0.004186411275012692</v>
+      </c>
+      <c r="Q14">
+        <v>0.1998816065546667</v>
+      </c>
+      <c r="R14">
+        <v>1.798934458992</v>
+      </c>
+      <c r="S14">
+        <v>2.604577332378234E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.604577332378233E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.972004</v>
+      </c>
+      <c r="H15">
+        <v>2.916012</v>
+      </c>
+      <c r="I15">
+        <v>0.006221503720678607</v>
+      </c>
+      <c r="J15">
+        <v>0.006221503720678606</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.974950666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.924852</v>
+      </c>
+      <c r="O15">
+        <v>0.06056432486857137</v>
+      </c>
+      <c r="P15">
+        <v>0.06056432486857137</v>
+      </c>
+      <c r="Q15">
+        <v>2.891663947802666</v>
+      </c>
+      <c r="R15">
+        <v>26.024975530224</v>
+      </c>
+      <c r="S15">
+        <v>0.0003768011725102046</v>
+      </c>
+      <c r="T15">
+        <v>0.0003768011725102046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.972004</v>
+      </c>
+      <c r="H16">
+        <v>2.916012</v>
+      </c>
+      <c r="I16">
+        <v>0.006221503720678607</v>
+      </c>
+      <c r="J16">
+        <v>0.006221503720678606</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>45.939923</v>
+      </c>
+      <c r="N16">
+        <v>137.819769</v>
+      </c>
+      <c r="O16">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="P16">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="Q16">
+        <v>44.653788915692</v>
+      </c>
+      <c r="R16">
+        <v>401.884100241228</v>
+      </c>
+      <c r="S16">
+        <v>0.005818656774844621</v>
+      </c>
+      <c r="T16">
+        <v>0.00581865677484462</v>
       </c>
     </row>
   </sheetData>
